--- a/public/data/soil/soil_table_south_sudan.xlsx
+++ b/public/data/soil/soil_table_south_sudan.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>47900.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>48392.3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>28034.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2681.9</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>74891.3</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>735.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>32300.9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,16 +919,16 @@
         <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>961.7</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>12747.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>256131.1</v>
       </c>
       <c r="H6" t="n">
         <v>8.133</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>202909.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>17729.3</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>24736</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>94449.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>777.7</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59130</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>92840.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>234.8</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>24083.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35589.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>68974.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>116086.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>94565.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>36609.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>107890.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57879.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1412,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1150.7</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>76987.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>37843.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>93621.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>46530.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147983.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>16689.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>25663</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>13578.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>45175.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3658.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>140839.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>16455.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>32958</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>25447</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1786.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>4057.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>10812.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>177584.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>46766.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>40903</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>146803.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>242.2</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>48738.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2185,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1515.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>56423.4</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>394.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2255,10 +2255,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>51739.3</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>39581.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>34449.9</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>486.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>39639.8</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
